--- a/output/comparison/correlation of 2022 and 2023 results.xlsx
+++ b/output/comparison/correlation of 2022 and 2023 results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AnacondaProjects\CCC forecasting\output\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BC7028-2145-4F89-AF52-43A3F7EBDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4941632C-BAAD-4F86-8212-F47DF2D8EE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,10 +141,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,226 +520,226 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.99555833730833188</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.99033137446581843</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.98287807936058924</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.24556132015899301</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.93169976636235574</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.78512419183594373</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>6.1255947396502232E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.15011409569808859</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.31571059454551248</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>7.3088843617951538E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>7.8880272398952678E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.33751653792018432</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>-4.2238627227319601E-2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.1199868145835922</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.35995455193071102</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.87299631558035784</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.73444284738714671</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.50260966417509423</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.94846404351731795</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.97499779544284404</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.49133992952127081</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.3376037761572529</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>0.98121031108104884</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.87559814038468464</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0.41805394813356372</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.61459681901001173</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.80353479053792254</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>-0.32427607455186491</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.72566497647197636</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.67568959726765521</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.32518457238009679</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0.66018175546270419</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.59550566286822026</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.79439550947468995</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>0.65512358815448379</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>0.56770822728714077</v>
       </c>
     </row>
